--- a/biology/Microbiologie/Thermoplasmata/Thermoplasmata.xlsx
+++ b/biology/Microbiologie/Thermoplasmata/Thermoplasmata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thermoplasmata est une classe d'archées de l'embranchement (phylum) des Euryarchaeota. Ce sont des microorganismes acidophiles dont le développement est optimal à un pH inférieur à 2. Le genre Picrophilus comprend les organismes les plus acidophiles connus, leur développement se poursuivant jusqu'à un pH minimum de 0,06.
 Les Thermoplasmata sont le plus souvent également thermophiles et ne possèdent pas de paroi cellulaire ; Picrophilus fait exception sur ce dernier point.
@@ -512,10 +524,12 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature (LPSN)[2] et le National Center for Biotechnology Information (NCBI)[3].
-La phylogénie est basée sur l'analyse de l'ARN ribosomal 16S[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taxonomie actuellement acceptée est basée sur la List of Prokaryotic names with Standing in Nomenclature (LPSN) et le National Center for Biotechnology Information (NCBI).
+La phylogénie est basée sur l'analyse de l'ARN ribosomal 16S.
 Notes:
 ♠ Souches citées par le National Center for Biotechnology Information (NCBI) mais non répertoriées dans la LPSN.
 </t>
